--- a/tests/outputs/Styles4.xlsx
+++ b/tests/outputs/Styles4.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,18 +19,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="12">
-    <numFmt formatCode="0.0000" numFmtId="164"/>
-    <numFmt formatCode="&quot;$&quot;#,##0.00" numFmtId="165"/>
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(\@_)" numFmtId="166"/>
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="167"/>
-    <numFmt formatCode="m/dd/yyyy" numFmtId="168"/>
-    <numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" numFmtId="169"/>
-    <numFmt formatCode="[$-F400]h\:mm\:ss\ AM/PM" numFmtId="170"/>
-    <numFmt formatCode="#\ ?/?" numFmtId="171"/>
-    <numFmt formatCode="0.000E+00" numFmtId="172"/>
-    <numFmt formatCode="00000" numFmtId="173"/>
-    <numFmt formatCode="[Blue]#" numFmtId="174"/>
-    <numFmt formatCode="[Green]#;[Red]#" numFmtId="175"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(\@_)"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="168" formatCode="m/dd/yyyy"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="[$-F400]h\:mm\:ss\ AM/PM"/>
+    <numFmt numFmtId="171" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="172" formatCode="0.000E+00"/>
+    <numFmt numFmtId="173" formatCode="00000"/>
+    <numFmt numFmtId="174" formatCode="[Blue]#"/>
+    <numFmt numFmtId="175" formatCode="[Green]#;[Red]#"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -469,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -490,51 +490,6 @@
       <bottom>
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -549,7 +504,6 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left>
@@ -564,7 +518,6 @@
       <bottom style="medium">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left>
@@ -579,368 +532,398 @@
       <bottom style="dashed">
         <color rgb="00ff0000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color rgb="00000000"/>
-      </left>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color rgb="00000000"/>
-      </left>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="105">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" shrinkToFit="1" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="90" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="180" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="15" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="105" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="255" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="173" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="174" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="175" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="10" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="11" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="12" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="13" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="14" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="15" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="16" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="17" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="18" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="19" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="20" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="21" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="22" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="23" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="24" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="25" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="26" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="27" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="28" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="29" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="30" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="31" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="32" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="33" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="34" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="35" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="36" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="37" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="38" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="39" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="40" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="41" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="42" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="43" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="44" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="45" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="46" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="47" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="48" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="49" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="50" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="51" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="52" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="53" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="54" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="55" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="56" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="57" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="58" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="59" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="60" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="49" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="51" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="52" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="53" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="55" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="56" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="57" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="58" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="59" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="60" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -950,13 +933,13 @@
     <author>Joe Cool</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B10" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>Joe Cool:
 This is a comment!</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C10" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <t>Joe Cool:
 Here is a second comment!</t>
@@ -978,7 +961,7 @@
     <ext cx="419100" cy="390525"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -1293,18 +1276,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="13.28142857142857"/>
-    <col customWidth="1" max="2" min="2" width="9.852857142857143"/>
-    <col customWidth="1" max="3" min="3" width="9.852857142857143"/>
-    <col customWidth="1" max="4" min="4" width="9.852857142857143"/>
-    <col customWidth="1" max="5" min="5" width="9.852857142857143"/>
-    <col customWidth="1" max="6" min="6" width="9.852857142857143"/>
-    <col hidden="1" max="7" min="7"/>
-    <col customWidth="1" max="8" min="8" width="9.852857142857143"/>
-    <col customWidth="1" max="9" min="9" width="9.852857142857143"/>
+    <col width="13.28142857142857" customWidth="1" min="1" max="1"/>
+    <col width="9.852857142857143" customWidth="1" min="2" max="2"/>
+    <col width="9.852857142857143" customWidth="1" min="3" max="3"/>
+    <col width="9.852857142857143" customWidth="1" min="4" max="4"/>
+    <col width="9.852857142857143" customWidth="1" min="5" max="5"/>
+    <col width="9.852857142857143" customWidth="1" min="6" max="6"/>
+    <col hidden="1" min="7" max="7"/>
+    <col width="9.852857142857143" customWidth="1" min="8" max="8"/>
+    <col width="9.852857142857143" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Normal</t>
@@ -1335,48 +1318,43 @@
       <c r="H1" s="1" t="inlineStr"/>
       <c r="I1" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="2">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Centered: Red with Yellow</t>
         </is>
       </c>
-      <c r="B2" s="7" t="n"/>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
-      <c r="F2" s="8" t="n"/>
       <c r="G2" s="1" t="inlineStr"/>
       <c r="H2" s="1" t="inlineStr"/>
       <c r="I2" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.75" r="3">
-      <c r="A3" s="9" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Bold</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Italic</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>Arial</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>Underline</t>
         </is>
       </c>
-      <c r="E3" s="13" t="inlineStr">
+      <c r="E3" s="11" t="inlineStr">
         <is>
           <t>Dbl Under</t>
         </is>
       </c>
-      <c r="F3" s="14" t="inlineStr">
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>Strike</t>
         </is>
@@ -1385,18 +1363,18 @@
       <c r="H3" s="1" t="inlineStr"/>
       <c r="I3" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.75" r="4">
-      <c r="A4" s="15" t="inlineStr">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="inlineStr">
         <is>
           <t>Boxed</t>
         </is>
       </c>
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>Thick</t>
         </is>
       </c>
-      <c r="C4" s="17" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>Dsh Red</t>
         </is>
@@ -1408,82 +1386,57 @@
       <c r="H4" s="1" t="inlineStr"/>
       <c r="I4" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="5">
-      <c r="A5" s="18" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Right Justified</t>
         </is>
       </c>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="8" t="n"/>
       <c r="G5" s="1" t="inlineStr"/>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="30" r="6">
-      <c r="A6" s="19" t="inlineStr">
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="17" t="inlineStr">
         <is>
           <t>Vertical: Bottom</t>
         </is>
       </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="8" t="n"/>
       <c r="G6" s="1" t="inlineStr"/>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="30" r="7">
-      <c r="A7" s="20" t="inlineStr">
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="18" t="inlineStr">
         <is>
           <t>Vertical: Center</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="8" t="n"/>
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="30.75" r="8">
-      <c r="A8" s="21" t="inlineStr">
+    <row r="8" ht="30.75" customHeight="1">
+      <c r="A8" s="19" t="inlineStr">
         <is>
           <t>Vertical: Top</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="8" t="n"/>
       <c r="G8" s="1" t="inlineStr"/>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="16.5" r="9">
-      <c r="A9" s="22" t="inlineStr">
+    <row r="9" ht="16.5" customHeight="1">
+      <c r="A9" s="20" t="inlineStr">
         <is>
           <t>Comic Sans MS Font</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="n"/>
       <c r="G9" s="1" t="inlineStr"/>
       <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>No wrap text</t>
@@ -1506,8 +1459,8 @@
       <c r="H10" s="1" t="inlineStr"/>
       <c r="I10" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="29.25" r="11">
-      <c r="A11" s="23" t="inlineStr">
+    <row r="11" ht="29.25" customHeight="1">
+      <c r="A11" s="21" t="inlineStr">
         <is>
           <t>Wrapped text</t>
         </is>
@@ -1521,13 +1474,13 @@
       <c r="H11" s="1" t="inlineStr"/>
       <c r="I11" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="12">
-      <c r="A12" s="24" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="22" t="inlineStr">
         <is>
           <t>Shrink to fit text</t>
         </is>
       </c>
-      <c r="B12" s="24" t="inlineStr"/>
+      <c r="B12" s="22" t="inlineStr"/>
       <c r="C12" s="1" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr"/>
       <c r="E12" s="1" t="inlineStr"/>
@@ -1536,8 +1489,8 @@
       <c r="H12" s="1" t="inlineStr"/>
       <c r="I12" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="13">
-      <c r="A13" s="25" t="n">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="23" t="n">
         <v>0.1</v>
       </c>
       <c r="B13" s="1" t="inlineStr"/>
@@ -1549,28 +1502,28 @@
       <c r="H13" s="1" t="inlineStr"/>
       <c r="I13" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="14">
-      <c r="A14" s="26" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="24" t="inlineStr">
         <is>
           <t>Vertical</t>
         </is>
       </c>
-      <c r="B14" s="27" t="inlineStr">
+      <c r="B14" s="25" t="inlineStr">
         <is>
           <t>OtherWay</t>
         </is>
       </c>
-      <c r="C14" s="28" t="inlineStr">
+      <c r="C14" s="26" t="inlineStr">
         <is>
           <t>SlightL</t>
         </is>
       </c>
-      <c r="D14" s="29" t="inlineStr">
+      <c r="D14" s="27" t="inlineStr">
         <is>
           <t>SlightR</t>
         </is>
       </c>
-      <c r="E14" s="30" t="inlineStr">
+      <c r="E14" s="28" t="inlineStr">
         <is>
           <t>Vrot</t>
         </is>
@@ -1580,54 +1533,37 @@
       <c r="H14" s="1" t="inlineStr"/>
       <c r="I14" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="15">
-      <c r="A15" s="31" t="n"/>
-      <c r="B15" s="31" t="n"/>
-      <c r="C15" s="31" t="n"/>
-      <c r="D15" s="31" t="n"/>
-      <c r="E15" s="31" t="n"/>
+    <row r="15" ht="15" customHeight="1">
       <c r="F15" s="1" t="inlineStr"/>
       <c r="G15" s="1" t="inlineStr"/>
       <c r="H15" s="1" t="inlineStr"/>
       <c r="I15" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="16">
-      <c r="A16" s="31" t="n"/>
-      <c r="B16" s="31" t="n"/>
-      <c r="C16" s="31" t="n"/>
-      <c r="D16" s="31" t="n"/>
-      <c r="E16" s="31" t="n"/>
+    <row r="16" ht="15" customHeight="1">
       <c r="F16" s="1" t="inlineStr"/>
       <c r="G16" s="1" t="inlineStr"/>
       <c r="H16" s="1" t="inlineStr"/>
       <c r="I16" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="17">
-      <c r="A17" s="32" t="n"/>
-      <c r="B17" s="32" t="n"/>
-      <c r="C17" s="32" t="n"/>
-      <c r="D17" s="32" t="n"/>
-      <c r="E17" s="32" t="n"/>
+    <row r="17" ht="15" customHeight="1">
       <c r="F17" s="1" t="inlineStr"/>
       <c r="G17" s="1" t="inlineStr"/>
       <c r="H17" s="1" t="inlineStr"/>
       <c r="I17" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="18">
-      <c r="A18" s="19" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="17" t="inlineStr">
         <is>
           <t>Next row is hidden:</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n"/>
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr"/>
-      <c r="E18" s="19" t="inlineStr">
+      <c r="E18" s="17" t="inlineStr">
         <is>
           <t>Next col is hidden:</t>
         </is>
       </c>
-      <c r="F18" s="8" t="n"/>
       <c r="G18" s="1" t="inlineStr">
         <is>
           <t>HIDDEN COL</t>
@@ -1636,13 +1572,12 @@
       <c r="H18" s="1" t="inlineStr"/>
       <c r="I18" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" hidden="1" r="19">
-      <c r="A19" s="19" t="inlineStr">
+    <row r="19" hidden="1" customHeight="1">
+      <c r="A19" s="17" t="inlineStr">
         <is>
           <t>THIS ROW IS HIDDEN</t>
         </is>
       </c>
-      <c r="B19" s="8" t="n"/>
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr"/>
       <c r="E19" s="1" t="inlineStr"/>
@@ -1651,13 +1586,12 @@
       <c r="H19" s="1" t="inlineStr"/>
       <c r="I19" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="20">
-      <c r="A20" s="33" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="29" t="inlineStr">
         <is>
           <t>Not hidden</t>
         </is>
       </c>
-      <c r="B20" s="8" t="n"/>
       <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr"/>
       <c r="E20" s="1" t="inlineStr"/>
@@ -1666,16 +1600,15 @@
       <c r="H20" s="1" t="inlineStr"/>
       <c r="I20" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="21">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Number:</t>
         </is>
       </c>
-      <c r="B21" s="34" t="n">
+      <c r="B21" s="30" t="n">
         <v>47712</v>
       </c>
-      <c r="C21" s="8" t="n"/>
       <c r="D21" s="1" t="inlineStr"/>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr"/>
@@ -1683,16 +1616,15 @@
       <c r="H21" s="1" t="inlineStr"/>
       <c r="I21" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="22">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>4 places:</t>
         </is>
       </c>
-      <c r="B22" s="35" t="n">
+      <c r="B22" s="31" t="n">
         <v>47712</v>
       </c>
-      <c r="C22" s="8" t="n"/>
       <c r="D22" s="1" t="inlineStr"/>
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr"/>
@@ -1700,16 +1632,15 @@
       <c r="H22" s="1" t="inlineStr"/>
       <c r="I22" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="23">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>0 places:</t>
         </is>
       </c>
-      <c r="B23" s="36" t="n">
+      <c r="B23" s="32" t="n">
         <v>47712</v>
       </c>
-      <c r="C23" s="8" t="n"/>
       <c r="D23" s="1" t="inlineStr"/>
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr"/>
@@ -1717,16 +1648,15 @@
       <c r="H23" s="1" t="inlineStr"/>
       <c r="I23" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="24">
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Currency:</t>
         </is>
       </c>
-      <c r="B24" s="37" t="n">
+      <c r="B24" s="33" t="n">
         <v>47712</v>
       </c>
-      <c r="C24" s="8" t="n"/>
       <c r="D24" s="1" t="inlineStr"/>
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1" t="inlineStr"/>
@@ -1734,16 +1664,15 @@
       <c r="H24" s="1" t="inlineStr"/>
       <c r="I24" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="25">
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Accounting:</t>
         </is>
       </c>
-      <c r="B25" s="38" t="n">
+      <c r="B25" s="34" t="n">
         <v>47712</v>
       </c>
-      <c r="C25" s="8" t="n"/>
       <c r="D25" s="1" t="inlineStr"/>
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr"/>
@@ -1751,16 +1680,15 @@
       <c r="H25" s="1" t="inlineStr"/>
       <c r="I25" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="26">
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Short Date:</t>
         </is>
       </c>
-      <c r="B26" s="39" t="n">
+      <c r="B26" s="35" t="n">
         <v>47712</v>
       </c>
-      <c r="C26" s="8" t="n"/>
       <c r="D26" s="1" t="inlineStr"/>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr"/>
@@ -1768,33 +1696,30 @@
       <c r="H26" s="1" t="inlineStr"/>
       <c r="I26" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="27">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Long Date:</t>
         </is>
       </c>
-      <c r="B27" s="40" t="n">
+      <c r="B27" s="36" t="n">
         <v>47712</v>
       </c>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="8" t="n"/>
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr"/>
       <c r="G27" s="1" t="inlineStr"/>
       <c r="H27" s="1" t="inlineStr"/>
       <c r="I27" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="28">
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Time:</t>
         </is>
       </c>
-      <c r="B28" s="41" t="n">
+      <c r="B28" s="37" t="n">
         <v>0.1786111111111111</v>
       </c>
-      <c r="C28" s="8" t="n"/>
       <c r="D28" s="1" t="inlineStr"/>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr"/>
@@ -1802,16 +1727,15 @@
       <c r="H28" s="1" t="inlineStr"/>
       <c r="I28" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="29">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Percent:</t>
         </is>
       </c>
-      <c r="B29" s="42" t="n">
+      <c r="B29" s="38" t="n">
         <v>47712</v>
       </c>
-      <c r="C29" s="8" t="n"/>
       <c r="D29" s="1" t="inlineStr"/>
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr"/>
@@ -1819,16 +1743,15 @@
       <c r="H29" s="1" t="inlineStr"/>
       <c r="I29" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="30">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Fraction:</t>
         </is>
       </c>
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="39" t="n">
         <v>47712</v>
       </c>
-      <c r="C30" s="8" t="n"/>
       <c r="D30" s="1" t="inlineStr"/>
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr"/>
@@ -1836,16 +1759,15 @@
       <c r="H30" s="1" t="inlineStr"/>
       <c r="I30" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="31">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Scientific:</t>
         </is>
       </c>
-      <c r="B31" s="44" t="n">
+      <c r="B31" s="40" t="n">
         <v>47700</v>
       </c>
-      <c r="C31" s="8" t="n"/>
       <c r="D31" s="1" t="inlineStr"/>
       <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr"/>
@@ -1853,16 +1775,15 @@
       <c r="H31" s="1" t="inlineStr"/>
       <c r="I31" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="32">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Scientific 3:</t>
         </is>
       </c>
-      <c r="B32" s="45" t="n">
+      <c r="B32" s="41" t="n">
         <v>47710</v>
       </c>
-      <c r="C32" s="8" t="n"/>
       <c r="D32" s="1" t="inlineStr"/>
       <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr"/>
@@ -1870,18 +1791,17 @@
       <c r="H32" s="1" t="inlineStr"/>
       <c r="I32" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="33">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>Text:</t>
         </is>
       </c>
-      <c r="B33" s="46" t="inlineStr">
+      <c r="B33" s="42" t="inlineStr">
         <is>
           <t>47712</t>
         </is>
       </c>
-      <c r="C33" s="8" t="n"/>
       <c r="D33" s="1" t="inlineStr"/>
       <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr"/>
@@ -1889,16 +1809,15 @@
       <c r="H33" s="1" t="inlineStr"/>
       <c r="I33" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="34">
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>Zip:</t>
         </is>
       </c>
-      <c r="B34" s="47" t="n">
+      <c r="B34" s="43" t="n">
         <v>7712</v>
       </c>
-      <c r="C34" s="8" t="n"/>
       <c r="D34" s="1" t="inlineStr"/>
       <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr"/>
@@ -1906,16 +1825,15 @@
       <c r="H34" s="1" t="inlineStr"/>
       <c r="I34" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="35">
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Blue:</t>
         </is>
       </c>
-      <c r="B35" s="48" t="n">
+      <c r="B35" s="44" t="n">
         <v>47712</v>
       </c>
-      <c r="C35" s="8" t="n"/>
       <c r="D35" s="1" t="inlineStr"/>
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr"/>
@@ -1923,16 +1841,15 @@
       <c r="H35" s="1" t="inlineStr"/>
       <c r="I35" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="36">
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Green/Red:</t>
         </is>
       </c>
-      <c r="B36" s="49" t="n">
+      <c r="B36" s="45" t="n">
         <v>47712</v>
       </c>
-      <c r="C36" s="8" t="n"/>
       <c r="D36" s="1" t="inlineStr"/>
       <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr"/>
@@ -1940,16 +1857,15 @@
       <c r="H36" s="1" t="inlineStr"/>
       <c r="I36" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="37">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Formula:</t>
         </is>
       </c>
-      <c r="B37" s="36" t="n">
+      <c r="B37" s="32" t="n">
         <v>47712</v>
       </c>
-      <c r="C37" s="8" t="n"/>
       <c r="D37" s="1" t="inlineStr"/>
       <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr"/>
@@ -1957,16 +1873,15 @@
       <c r="H37" s="1" t="inlineStr"/>
       <c r="I37" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="38">
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Conditional1:</t>
         </is>
       </c>
-      <c r="B38" s="50" t="n">
+      <c r="B38" s="46" t="n">
         <v>47712</v>
       </c>
-      <c r="C38" s="8" t="n"/>
       <c r="D38" s="1" t="inlineStr"/>
       <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr"/>
@@ -1974,16 +1889,15 @@
       <c r="H38" s="1" t="inlineStr"/>
       <c r="I38" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="39">
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Conditional2:</t>
         </is>
       </c>
-      <c r="B39" s="50" t="n">
+      <c r="B39" s="46" t="n">
         <v>47712</v>
       </c>
-      <c r="C39" s="8" t="n"/>
       <c r="D39" s="1" t="inlineStr"/>
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr"/>
@@ -1991,16 +1905,15 @@
       <c r="H39" s="1" t="inlineStr"/>
       <c r="I39" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="40">
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>Conditional3:</t>
         </is>
       </c>
-      <c r="B40" s="51" t="n">
+      <c r="B40" s="47" t="n">
         <v>47712</v>
       </c>
-      <c r="C40" s="8" t="n"/>
       <c r="D40" s="1" t="inlineStr"/>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr"/>
@@ -2008,70 +1921,69 @@
       <c r="H40" s="1" t="inlineStr"/>
       <c r="I40" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="41">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>Hyperlink:</t>
         </is>
       </c>
-      <c r="B41" s="52" t="inlineStr">
+      <c r="B41" s="48" t="inlineStr">
         <is>
           <t>Microsoft Link</t>
         </is>
       </c>
-      <c r="C41" s="8" t="n"/>
-      <c r="D41" s="53" t="inlineStr"/>
+      <c r="D41" s="49" t="inlineStr"/>
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr"/>
       <c r="G41" s="1" t="inlineStr"/>
       <c r="H41" s="1" t="inlineStr"/>
       <c r="I41" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="31.5" r="42">
+    <row r="42" ht="31.5" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>Image:</t>
         </is>
       </c>
-      <c r="B42" s="54" t="inlineStr"/>
-      <c r="C42" s="54" t="inlineStr"/>
-      <c r="D42" s="54" t="inlineStr"/>
+      <c r="B42" s="50" t="inlineStr"/>
+      <c r="C42" s="50" t="inlineStr"/>
+      <c r="D42" s="50" t="inlineStr"/>
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr"/>
       <c r="G42" s="1" t="inlineStr"/>
       <c r="H42" s="1" t="inlineStr"/>
       <c r="I42" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="43">
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>Errors:</t>
         </is>
       </c>
-      <c r="B43" s="19" t="e">
+      <c r="B43" s="17" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="C43" s="19" t="e">
+      <c r="C43" s="17" t="e">
         <v>#REF!</v>
       </c>
-      <c r="D43" s="19" t="e">
+      <c r="D43" s="17" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="19" t="e">
+      <c r="E43" s="17" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="F43" s="19" t="e">
+      <c r="F43" s="17" t="e">
         <v>#NAME?</v>
       </c>
       <c r="G43" s="1" t="inlineStr"/>
-      <c r="H43" s="19" t="e">
+      <c r="H43" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="I43" s="19" t="e">
+      <c r="I43" s="17" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="44">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>none</t>
@@ -2086,270 +1998,270 @@
       <c r="H44" s="1" t="inlineStr"/>
       <c r="I44" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="45">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>solid</t>
         </is>
       </c>
-      <c r="B45" s="55" t="inlineStr"/>
-      <c r="C45" s="56" t="inlineStr"/>
-      <c r="D45" s="57" t="inlineStr"/>
+      <c r="B45" s="51" t="inlineStr"/>
+      <c r="C45" s="52" t="inlineStr"/>
+      <c r="D45" s="53" t="inlineStr"/>
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr"/>
       <c r="G45" s="1" t="inlineStr"/>
       <c r="H45" s="1" t="inlineStr"/>
       <c r="I45" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="46">
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>mediumGray</t>
         </is>
       </c>
-      <c r="B46" s="58" t="inlineStr"/>
-      <c r="C46" s="59" t="inlineStr"/>
-      <c r="D46" s="60" t="inlineStr"/>
+      <c r="B46" s="54" t="inlineStr"/>
+      <c r="C46" s="55" t="inlineStr"/>
+      <c r="D46" s="56" t="inlineStr"/>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr"/>
       <c r="G46" s="1" t="inlineStr"/>
       <c r="H46" s="1" t="inlineStr"/>
       <c r="I46" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="47">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>darkGray</t>
         </is>
       </c>
-      <c r="B47" s="61" t="inlineStr"/>
-      <c r="C47" s="62" t="inlineStr"/>
-      <c r="D47" s="63" t="inlineStr"/>
+      <c r="B47" s="57" t="inlineStr"/>
+      <c r="C47" s="58" t="inlineStr"/>
+      <c r="D47" s="59" t="inlineStr"/>
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr"/>
       <c r="G47" s="1" t="inlineStr"/>
       <c r="H47" s="1" t="inlineStr"/>
       <c r="I47" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="48">
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>lightGray</t>
         </is>
       </c>
-      <c r="B48" s="64" t="inlineStr"/>
-      <c r="C48" s="65" t="inlineStr"/>
-      <c r="D48" s="66" t="inlineStr"/>
+      <c r="B48" s="60" t="inlineStr"/>
+      <c r="C48" s="61" t="inlineStr"/>
+      <c r="D48" s="62" t="inlineStr"/>
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr"/>
       <c r="G48" s="1" t="inlineStr"/>
       <c r="H48" s="1" t="inlineStr"/>
       <c r="I48" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="49">
-      <c r="A49" s="24" t="inlineStr">
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" s="22" t="inlineStr">
         <is>
           <t>darkHorizonta</t>
         </is>
       </c>
-      <c r="B49" s="67" t="inlineStr"/>
-      <c r="C49" s="68" t="inlineStr"/>
-      <c r="D49" s="69" t="inlineStr"/>
+      <c r="B49" s="63" t="inlineStr"/>
+      <c r="C49" s="64" t="inlineStr"/>
+      <c r="D49" s="65" t="inlineStr"/>
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr"/>
       <c r="G49" s="1" t="inlineStr"/>
       <c r="H49" s="1" t="inlineStr"/>
       <c r="I49" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="50">
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>darkVertical</t>
         </is>
       </c>
-      <c r="B50" s="70" t="inlineStr"/>
-      <c r="C50" s="71" t="inlineStr"/>
-      <c r="D50" s="72" t="inlineStr"/>
+      <c r="B50" s="66" t="inlineStr"/>
+      <c r="C50" s="67" t="inlineStr"/>
+      <c r="D50" s="68" t="inlineStr"/>
       <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr"/>
       <c r="G50" s="1" t="inlineStr"/>
       <c r="H50" s="1" t="inlineStr"/>
       <c r="I50" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="51">
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>darkDown</t>
         </is>
       </c>
-      <c r="B51" s="73" t="inlineStr"/>
-      <c r="C51" s="74" t="inlineStr"/>
-      <c r="D51" s="75" t="inlineStr"/>
+      <c r="B51" s="69" t="inlineStr"/>
+      <c r="C51" s="70" t="inlineStr"/>
+      <c r="D51" s="71" t="inlineStr"/>
       <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr"/>
       <c r="G51" s="1" t="inlineStr"/>
       <c r="H51" s="1" t="inlineStr"/>
       <c r="I51" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="52">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>darkUp</t>
         </is>
       </c>
-      <c r="B52" s="76" t="inlineStr"/>
-      <c r="C52" s="77" t="inlineStr"/>
-      <c r="D52" s="78" t="inlineStr"/>
+      <c r="B52" s="72" t="inlineStr"/>
+      <c r="C52" s="73" t="inlineStr"/>
+      <c r="D52" s="74" t="inlineStr"/>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr"/>
       <c r="G52" s="1" t="inlineStr"/>
       <c r="H52" s="1" t="inlineStr"/>
       <c r="I52" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="53">
+    <row r="53" ht="15" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>darkGrid</t>
         </is>
       </c>
-      <c r="B53" s="79" t="inlineStr"/>
-      <c r="C53" s="80" t="inlineStr"/>
-      <c r="D53" s="81" t="inlineStr"/>
+      <c r="B53" s="75" t="inlineStr"/>
+      <c r="C53" s="76" t="inlineStr"/>
+      <c r="D53" s="77" t="inlineStr"/>
       <c r="E53" s="1" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr"/>
       <c r="G53" s="1" t="inlineStr"/>
       <c r="H53" s="1" t="inlineStr"/>
       <c r="I53" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="54">
+    <row r="54" ht="15" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>darkTrellis</t>
         </is>
       </c>
-      <c r="B54" s="82" t="inlineStr"/>
-      <c r="C54" s="83" t="inlineStr"/>
-      <c r="D54" s="84" t="inlineStr"/>
+      <c r="B54" s="78" t="inlineStr"/>
+      <c r="C54" s="79" t="inlineStr"/>
+      <c r="D54" s="80" t="inlineStr"/>
       <c r="E54" s="1" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr"/>
       <c r="G54" s="1" t="inlineStr"/>
       <c r="H54" s="1" t="inlineStr"/>
       <c r="I54" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="55">
-      <c r="A55" s="24" t="inlineStr">
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" s="22" t="inlineStr">
         <is>
           <t>lightHorizont</t>
         </is>
       </c>
-      <c r="B55" s="85" t="inlineStr"/>
-      <c r="C55" s="86" t="inlineStr"/>
-      <c r="D55" s="87" t="inlineStr"/>
+      <c r="B55" s="81" t="inlineStr"/>
+      <c r="C55" s="82" t="inlineStr"/>
+      <c r="D55" s="83" t="inlineStr"/>
       <c r="E55" s="1" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr"/>
       <c r="G55" s="1" t="inlineStr"/>
       <c r="H55" s="1" t="inlineStr"/>
       <c r="I55" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="56">
+    <row r="56" ht="15" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>lightVertical</t>
         </is>
       </c>
-      <c r="B56" s="88" t="inlineStr"/>
-      <c r="C56" s="89" t="inlineStr"/>
-      <c r="D56" s="90" t="inlineStr"/>
+      <c r="B56" s="84" t="inlineStr"/>
+      <c r="C56" s="85" t="inlineStr"/>
+      <c r="D56" s="86" t="inlineStr"/>
       <c r="E56" s="1" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr"/>
       <c r="G56" s="1" t="inlineStr"/>
       <c r="H56" s="1" t="inlineStr"/>
       <c r="I56" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="57">
+    <row r="57" ht="15" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>lightDown</t>
         </is>
       </c>
-      <c r="B57" s="91" t="inlineStr"/>
-      <c r="C57" s="92" t="inlineStr"/>
-      <c r="D57" s="93" t="inlineStr"/>
+      <c r="B57" s="87" t="inlineStr"/>
+      <c r="C57" s="88" t="inlineStr"/>
+      <c r="D57" s="89" t="inlineStr"/>
       <c r="E57" s="1" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr"/>
       <c r="G57" s="1" t="inlineStr"/>
       <c r="H57" s="1" t="inlineStr"/>
       <c r="I57" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="58">
+    <row r="58" ht="15" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>lightUp</t>
         </is>
       </c>
-      <c r="B58" s="94" t="inlineStr"/>
-      <c r="C58" s="95" t="inlineStr"/>
-      <c r="D58" s="96" t="inlineStr"/>
+      <c r="B58" s="90" t="inlineStr"/>
+      <c r="C58" s="91" t="inlineStr"/>
+      <c r="D58" s="92" t="inlineStr"/>
       <c r="E58" s="1" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr"/>
       <c r="G58" s="1" t="inlineStr"/>
       <c r="H58" s="1" t="inlineStr"/>
       <c r="I58" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="59">
+    <row r="59" ht="15" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>lightGrid</t>
         </is>
       </c>
-      <c r="B59" s="97" t="inlineStr"/>
-      <c r="C59" s="98" t="inlineStr"/>
-      <c r="D59" s="99" t="inlineStr"/>
+      <c r="B59" s="93" t="inlineStr"/>
+      <c r="C59" s="94" t="inlineStr"/>
+      <c r="D59" s="95" t="inlineStr"/>
       <c r="E59" s="1" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr"/>
       <c r="G59" s="1" t="inlineStr"/>
       <c r="H59" s="1" t="inlineStr"/>
       <c r="I59" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="60">
+    <row r="60" ht="15" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>lightTrellis</t>
         </is>
       </c>
-      <c r="B60" s="100" t="inlineStr"/>
-      <c r="C60" s="101" t="inlineStr"/>
-      <c r="D60" s="102" t="inlineStr"/>
+      <c r="B60" s="96" t="inlineStr"/>
+      <c r="C60" s="97" t="inlineStr"/>
+      <c r="D60" s="98" t="inlineStr"/>
       <c r="E60" s="1" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr"/>
       <c r="G60" s="1" t="inlineStr"/>
       <c r="H60" s="1" t="inlineStr"/>
       <c r="I60" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="61">
+    <row r="61" ht="15" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>gray125</t>
         </is>
       </c>
-      <c r="B61" s="103" t="inlineStr"/>
-      <c r="C61" s="104" t="inlineStr"/>
-      <c r="D61" s="105" t="inlineStr"/>
+      <c r="B61" s="99" t="inlineStr"/>
+      <c r="C61" s="100" t="inlineStr"/>
+      <c r="D61" s="101" t="inlineStr"/>
       <c r="E61" s="1" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr"/>
       <c r="G61" s="1" t="inlineStr"/>
       <c r="H61" s="1" t="inlineStr"/>
       <c r="I61" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="62">
+    <row r="62" ht="15" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>gray0625</t>
         </is>
       </c>
-      <c r="B62" s="106" t="inlineStr"/>
-      <c r="C62" s="107" t="inlineStr"/>
-      <c r="D62" s="108" t="inlineStr"/>
+      <c r="B62" s="102" t="inlineStr"/>
+      <c r="C62" s="103" t="inlineStr"/>
+      <c r="D62" s="104" t="inlineStr"/>
       <c r="E62" s="1" t="inlineStr"/>
       <c r="F62" s="1" t="inlineStr"/>
       <c r="G62" s="1" t="inlineStr"/>
@@ -2398,7 +2310,7 @@
   <hyperlinks>
     <hyperlink ref="B41" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
@@ -2418,11 +2330,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9.852857142857143"/>
-    <col customWidth="1" max="2" min="2" width="9.852857142857143"/>
+    <col width="9.852857142857143" customWidth="1" min="1" max="1"/>
+    <col width="9.852857142857143" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Text on Sheet 2</t>
@@ -2431,7 +2343,7 @@
       <c r="B1" s="1" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2449,13 +2361,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9.852857142857143"/>
+    <col width="9.852857142857143" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>